--- a/team_specific_matrix/Robert Morris_B.xlsx
+++ b/team_specific_matrix/Robert Morris_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1925925925925926</v>
+        <v>0.1994459833795014</v>
       </c>
       <c r="C2">
-        <v>0.5592592592592592</v>
+        <v>0.5512465373961218</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01111111111111111</v>
+        <v>0.01385041551246537</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.137037037037037</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.09418282548476455</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00641025641025641</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="C3">
-        <v>0.04487179487179487</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04487179487179487</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7564102564102564</v>
+        <v>0.7438423645320197</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1474358974358974</v>
+        <v>0.167487684729064</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.24</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1049723756906077</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005524861878453038</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E6">
-        <v>0.005524861878453038</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="F6">
-        <v>0.05524861878453038</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1823204419889503</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03867403314917127</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1878453038674033</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="R6">
-        <v>0.08287292817679558</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="S6">
-        <v>0.3370165745856354</v>
+        <v>0.3260869565217391</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119205298013245</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03311258278145696</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="E7">
-        <v>0.006622516556291391</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.03973509933774835</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119205298013245</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03311258278145696</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1920529801324503</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="R7">
-        <v>0.04635761589403974</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="S7">
-        <v>0.4105960264900662</v>
+        <v>0.4162162162162162</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09424083769633508</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01570680628272251</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06544502617801047</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09424083769633508</v>
+        <v>0.08991228070175439</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01832460732984293</v>
+        <v>0.01535087719298246</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.193717277486911</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="R8">
-        <v>0.1020942408376963</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="S8">
-        <v>0.4162303664921466</v>
+        <v>0.4298245614035088</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09941520467836257</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02339181286549707</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="E9">
-        <v>0.005847953216374269</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F9">
-        <v>0.03508771929824561</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1228070175438596</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005847953216374269</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2105263157894737</v>
+        <v>0.2073732718894009</v>
       </c>
       <c r="R9">
-        <v>0.09941520467836257</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="S9">
-        <v>0.3976608187134503</v>
+        <v>0.3778801843317972</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1208121827411168</v>
+        <v>0.1323414252153485</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01116751269035533</v>
+        <v>0.01018010963194988</v>
       </c>
       <c r="E10">
-        <v>0.001015228426395939</v>
+        <v>0.0007830853563038371</v>
       </c>
       <c r="F10">
-        <v>0.08020304568527918</v>
+        <v>0.07282693813625685</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1106598984771574</v>
+        <v>0.1127642913077525</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01319796954314721</v>
+        <v>0.01487862176977291</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213197969543147</v>
+        <v>0.2286609240407204</v>
       </c>
       <c r="R10">
-        <v>0.07918781725888324</v>
+        <v>0.07674236491777604</v>
       </c>
       <c r="S10">
-        <v>0.3624365482233503</v>
+        <v>0.350822239624119</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1353711790393013</v>
+        <v>0.1299638989169675</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1004366812227074</v>
+        <v>0.09386281588447654</v>
       </c>
       <c r="K11">
-        <v>0.1965065502183406</v>
+        <v>0.1949458483754513</v>
       </c>
       <c r="L11">
-        <v>0.5502183406113537</v>
+        <v>0.5595667870036101</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01746724890829694</v>
+        <v>0.02166064981949458</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7482014388489209</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1366906474820144</v>
+        <v>0.1345029239766082</v>
       </c>
       <c r="K12">
-        <v>0.02877697841726619</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L12">
-        <v>0.06474820143884892</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02158273381294964</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6052631578947368</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3684210526315789</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04022988505747126</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1839080459770115</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I15">
-        <v>0.08620689655172414</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="J15">
-        <v>0.3103448275862069</v>
+        <v>0.334841628959276</v>
       </c>
       <c r="K15">
-        <v>0.06321839080459771</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08045977011494253</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.235632183908046</v>
+        <v>0.248868778280543</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01212121212121212</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2060606060606061</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="I16">
-        <v>0.08484848484848485</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="J16">
-        <v>0.3515151515151515</v>
+        <v>0.3824884792626728</v>
       </c>
       <c r="K16">
-        <v>0.103030303030303</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02424242424242424</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N16">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="O16">
-        <v>0.03636363636363636</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1757575757575758</v>
+        <v>0.152073732718894</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.020671834625323</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1602067183462532</v>
+        <v>0.1533864541832669</v>
       </c>
       <c r="I17">
-        <v>0.08010335917312661</v>
+        <v>0.09163346613545817</v>
       </c>
       <c r="J17">
-        <v>0.4186046511627907</v>
+        <v>0.4302788844621514</v>
       </c>
       <c r="K17">
-        <v>0.08010335917312661</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01808785529715762</v>
+        <v>0.01394422310756972</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="O17">
-        <v>0.05684754521963824</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.165374677002584</v>
+        <v>0.149402390438247</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01923076923076923</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1474358974358974</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1217948717948718</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="J18">
-        <v>0.3653846153846154</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01923076923076923</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1602564102564103</v>
+        <v>0.1483516483516484</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01324503311258278</v>
+        <v>0.01527883880825057</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2204351939451277</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="I19">
-        <v>0.09082308420056764</v>
+        <v>0.08785332314744079</v>
       </c>
       <c r="J19">
-        <v>0.3595080416272469</v>
+        <v>0.3773873185637892</v>
       </c>
       <c r="K19">
-        <v>0.1002838221381268</v>
+        <v>0.09778456837280367</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02270577105014191</v>
+        <v>0.01986249045072574</v>
       </c>
       <c r="N19">
-        <v>0.000946073793755913</v>
+        <v>0.0007639419404125286</v>
       </c>
       <c r="O19">
-        <v>0.06149479659413434</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.130558183538316</v>
+        <v>0.1291061879297173</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Robert Morris_B.xlsx
+++ b/team_specific_matrix/Robert Morris_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1994459833795014</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5512465373961218</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01385041551246537</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1412742382271468</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09418282548476455</v>
+        <v>0.08947368421052632</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009852216748768473</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="C3">
-        <v>0.03448275862068965</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04433497536945813</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7438423645320197</v>
+        <v>0.7534883720930232</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.167487684729064</v>
+        <v>0.1581395348837209</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09130434782608696</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01304347826086956</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E6">
-        <v>0.004347826086956522</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F6">
-        <v>0.06521739130434782</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.208695652173913</v>
+        <v>0.2163265306122449</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03478260869565217</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.191304347826087</v>
+        <v>0.1918367346938775</v>
       </c>
       <c r="R6">
-        <v>0.06521739130434782</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="S6">
-        <v>0.3260869565217391</v>
+        <v>0.3265306122448979</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1189189189189189</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03783783783783784</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="E7">
-        <v>0.005405405405405406</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.04324324324324325</v>
+        <v>0.046875</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1189189189189189</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02702702702702703</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1945945945945946</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="R7">
-        <v>0.03783783783783784</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S7">
-        <v>0.4162162162162162</v>
+        <v>0.4010416666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09210526315789473</v>
+        <v>0.0918580375782881</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01754385964912281</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06140350877192982</v>
+        <v>0.05845511482254697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08991228070175439</v>
+        <v>0.09812108559498957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01535087719298246</v>
+        <v>0.01461377870563674</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1973684210526316</v>
+        <v>0.2025052192066806</v>
       </c>
       <c r="R8">
-        <v>0.09649122807017543</v>
+        <v>0.09603340292275574</v>
       </c>
       <c r="S8">
-        <v>0.4298245614035088</v>
+        <v>0.4217118997912317</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1152073732718894</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02304147465437788</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="E9">
-        <v>0.004608294930875576</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="F9">
-        <v>0.05069124423963134</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.119815668202765</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009216589861751152</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2073732718894009</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="R9">
-        <v>0.09216589861751152</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S9">
-        <v>0.3778801843317972</v>
+        <v>0.3781512605042017</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1323414252153485</v>
+        <v>0.1318281136198106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01018010963194988</v>
+        <v>0.01092498179169701</v>
       </c>
       <c r="E10">
-        <v>0.0007830853563038371</v>
+        <v>0.0007283321194464676</v>
       </c>
       <c r="F10">
-        <v>0.07282693813625685</v>
+        <v>0.07283321194464676</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1127642913077525</v>
+        <v>0.112163146394756</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01487862176977291</v>
+        <v>0.01529497450837582</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2286609240407204</v>
+        <v>0.2272396212672979</v>
       </c>
       <c r="R10">
-        <v>0.07674236491777604</v>
+        <v>0.0764748725418791</v>
       </c>
       <c r="S10">
-        <v>0.350822239624119</v>
+        <v>0.3525127458120903</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1299638989169675</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09386281588447654</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="K11">
-        <v>0.1949458483754513</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="L11">
-        <v>0.5595667870036101</v>
+        <v>0.5532646048109966</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02166064981949458</v>
+        <v>0.0274914089347079</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7543859649122807</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1345029239766082</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="K12">
-        <v>0.02339181286549707</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="L12">
-        <v>0.07017543859649122</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01754385964912281</v>
+        <v>0.01685393258426966</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03167420814479638</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1719457013574661</v>
+        <v>0.1759656652360515</v>
       </c>
       <c r="I15">
-        <v>0.07239819004524888</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="J15">
-        <v>0.334841628959276</v>
+        <v>0.3261802575107296</v>
       </c>
       <c r="K15">
-        <v>0.05429864253393665</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009049773755656109</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07692307692307693</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.248868778280543</v>
+        <v>0.2532188841201717</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02304147465437788</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1981566820276498</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="I16">
-        <v>0.08755760368663594</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3824884792626728</v>
+        <v>0.3679653679653679</v>
       </c>
       <c r="K16">
-        <v>0.08294930875576037</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02304147465437788</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="N16">
-        <v>0.004608294930875576</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O16">
-        <v>0.04608294930875576</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.152073732718894</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02390438247011952</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1533864541832669</v>
+        <v>0.1462962962962963</v>
       </c>
       <c r="I17">
-        <v>0.09163346613545817</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J17">
-        <v>0.4302788844621514</v>
+        <v>0.4407407407407408</v>
       </c>
       <c r="K17">
-        <v>0.0796812749003984</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01394422310756972</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="N17">
-        <v>0.00199203187250996</v>
+        <v>0.001851851851851852</v>
       </c>
       <c r="O17">
-        <v>0.05577689243027888</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.149402390438247</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02197802197802198</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="I18">
-        <v>0.1373626373626374</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="J18">
-        <v>0.3516483516483517</v>
+        <v>0.3678756476683938</v>
       </c>
       <c r="K18">
-        <v>0.1043956043956044</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01648351648351648</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1483516483516484</v>
+        <v>0.1398963730569948</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01527883880825057</v>
+        <v>0.01437814521926671</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2077922077922078</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="I19">
-        <v>0.08785332314744079</v>
+        <v>0.08986340762041696</v>
       </c>
       <c r="J19">
-        <v>0.3773873185637892</v>
+        <v>0.3788641265276779</v>
       </c>
       <c r="K19">
-        <v>0.09778456837280367</v>
+        <v>0.09777138749101366</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01986249045072574</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N19">
-        <v>0.0007639419404125286</v>
+        <v>0.001437814521926672</v>
       </c>
       <c r="O19">
-        <v>0.06417112299465241</v>
+        <v>0.06326383896477354</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1291061879297173</v>
+        <v>0.1301222142343638</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Robert Morris_B.xlsx
+++ b/team_specific_matrix/Robert Morris_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C2">
-        <v>0.5526315789473685</v>
+        <v>0.5515463917525774</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01578947368421053</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1421052631578947</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08947368421052632</v>
+        <v>0.09278350515463918</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009302325581395349</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C3">
-        <v>0.03720930232558139</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04186046511627907</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7534883720930232</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1581395348837209</v>
+        <v>0.1643835616438356</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2571428571428571</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08979591836734693</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01224489795918367</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E6">
-        <v>0.004081632653061225</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="F6">
-        <v>0.0653061224489796</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2163265306122449</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0326530612244898</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1918367346938775</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R6">
-        <v>0.06122448979591837</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="S6">
-        <v>0.3265306122448979</v>
+        <v>0.3373015873015873</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1145833333333333</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03645833333333334</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="E7">
-        <v>0.005208333333333333</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F7">
-        <v>0.046875</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1302083333333333</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02604166666666667</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1979166666666667</v>
+        <v>0.1968911917098446</v>
       </c>
       <c r="R7">
-        <v>0.04166666666666666</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="S7">
-        <v>0.4010416666666667</v>
+        <v>0.4041450777202072</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0918580375782881</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01670146137787056</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05845511482254697</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09812108559498957</v>
+        <v>0.09959349593495935</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01461377870563674</v>
+        <v>0.01422764227642276</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2025052192066806</v>
+        <v>0.2052845528455285</v>
       </c>
       <c r="R8">
-        <v>0.09603340292275574</v>
+        <v>0.09552845528455285</v>
       </c>
       <c r="S8">
-        <v>0.4217118997912317</v>
+        <v>0.4207317073170732</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1050420168067227</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02100840336134454</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="E9">
-        <v>0.004201680672268907</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="F9">
-        <v>0.05042016806722689</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1218487394957983</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01260504201680672</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2184873949579832</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="R9">
-        <v>0.08823529411764706</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S9">
-        <v>0.3781512605042017</v>
+        <v>0.3669354838709677</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1318281136198106</v>
+        <v>0.131597466572836</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01092498179169701</v>
+        <v>0.01125967628430683</v>
       </c>
       <c r="E10">
-        <v>0.0007283321194464676</v>
+        <v>0.0007037297677691766</v>
       </c>
       <c r="F10">
-        <v>0.07283321194464676</v>
+        <v>0.07248416608022519</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.112163146394756</v>
+        <v>0.1097818437719916</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01529497450837582</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2272396212672979</v>
+        <v>0.227304714989444</v>
       </c>
       <c r="R10">
-        <v>0.0764748725418791</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="S10">
-        <v>0.3525127458120903</v>
+        <v>0.3532723434201266</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1305841924398626</v>
+        <v>0.1301369863013699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09278350515463918</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="K11">
-        <v>0.1958762886597938</v>
+        <v>0.1952054794520548</v>
       </c>
       <c r="L11">
-        <v>0.5532646048109966</v>
+        <v>0.5547945205479452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0274914089347079</v>
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7471910112359551</v>
+        <v>0.7430167597765364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1404494382022472</v>
+        <v>0.1452513966480447</v>
       </c>
       <c r="K12">
-        <v>0.02247191011235955</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="L12">
-        <v>0.07303370786516854</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01685393258426966</v>
+        <v>0.01675977653631285</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6279069767441861</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3488372093023256</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03004291845493562</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1759656652360515</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="I15">
-        <v>0.0815450643776824</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J15">
-        <v>0.3261802575107296</v>
+        <v>0.3264462809917356</v>
       </c>
       <c r="K15">
-        <v>0.05150214592274678</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008583690987124463</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07296137339055794</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2532188841201717</v>
+        <v>0.2479338842975207</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1991341991341991</v>
+        <v>0.2008547008547009</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="J16">
-        <v>0.3679653679653679</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="K16">
-        <v>0.08658008658008658</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02164502164502164</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N16">
-        <v>0.004329004329004329</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1558441558441558</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02407407407407407</v>
+        <v>0.02329749103942652</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1462962962962963</v>
+        <v>0.1469534050179211</v>
       </c>
       <c r="I17">
-        <v>0.09444444444444444</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="J17">
-        <v>0.4407407407407408</v>
+        <v>0.442652329749104</v>
       </c>
       <c r="K17">
-        <v>0.07407407407407407</v>
+        <v>0.07347670250896057</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01296296296296296</v>
+        <v>0.01254480286738351</v>
       </c>
       <c r="N17">
-        <v>0.001851851851851852</v>
+        <v>0.001792114695340502</v>
       </c>
       <c r="O17">
         <v>0.05555555555555555</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.15</v>
+        <v>0.1523297491039426</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02072538860103627</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1450777202072539</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="I18">
-        <v>0.1347150259067358</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="J18">
-        <v>0.3678756476683938</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="K18">
-        <v>0.09844559585492228</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0155440414507772</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07772020725388601</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1398963730569948</v>
+        <v>0.142156862745098</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01437814521926671</v>
+        <v>0.01460361613351878</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.205607476635514</v>
+        <v>0.2037552155771905</v>
       </c>
       <c r="I19">
-        <v>0.08986340762041696</v>
+        <v>0.0917941585535466</v>
       </c>
       <c r="J19">
-        <v>0.3788641265276779</v>
+        <v>0.3810848400556328</v>
       </c>
       <c r="K19">
-        <v>0.09777138749101366</v>
+        <v>0.09457579972183588</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01869158878504673</v>
+        <v>0.01877607788595271</v>
       </c>
       <c r="N19">
-        <v>0.001437814521926672</v>
+        <v>0.001390820584144645</v>
       </c>
       <c r="O19">
-        <v>0.06326383896477354</v>
+        <v>0.06397774687065369</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1301222142343638</v>
+        <v>0.1300417246175243</v>
       </c>
     </row>
   </sheetData>
